--- a/Format/Classific/Open Clusters/St/Stock.xlsx
+++ b/Format/Classific/Open Clusters/St/Stock.xlsx
@@ -663,11 +663,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1249,5 +1252,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>